--- a/1-FullSeason.xlsx
+++ b/1-FullSeason.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasco\Desktop\SquashResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFFDDAC-B476-44CA-A11D-10377858F206}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55696CA6-466F-4D32-8417-E2D9709E44AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9096" yWindow="1920" windowWidth="12972" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="137">
   <si>
     <t>Holland</t>
   </si>
@@ -343,6 +343,99 @@
   </si>
   <si>
     <t>Dark</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>YMCA 1</t>
+  </si>
+  <si>
+    <t>Aymar</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>Sider</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Myers</t>
+  </si>
+  <si>
+    <t>Men's Division 4</t>
+  </si>
+  <si>
+    <t>BAC 3</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Rubin</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>Dunham</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Hancock</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Carruthers</t>
+  </si>
+  <si>
+    <t>Ridley 3</t>
+  </si>
+  <si>
+    <t>Ridley</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>McNiven</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Gittings</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Ben</t>
   </si>
 </sst>
 </file>
@@ -691,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +795,7 @@
     <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -762,6 +855,12 @@
       <c r="D5" t="s">
         <v>72</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -964,6 +1063,12 @@
       <c r="D14" t="s">
         <v>72</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1166,6 +1271,12 @@
       <c r="D23" t="s">
         <v>73</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1368,6 +1479,12 @@
       <c r="D32" t="s">
         <v>74</v>
       </c>
+      <c r="E32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -1641,6 +1758,12 @@
       <c r="D45" t="s">
         <v>72</v>
       </c>
+      <c r="E45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -1776,424 +1899,973 @@
         <v>13</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="H51" s="2"/>
+    </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" t="s">
-        <v>75</v>
+      <c r="A54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="4">
+        <v>35184</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" ref="E54:E57" si="3">CONCATENATE(B54,".",C54,"@outlook.com")</f>
+        <v>Phil.Aymar@outlook.com</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="4">
+        <v>35185</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="3"/>
+        <v>Andrew.Moses@outlook.com</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B56" t="s">
-        <v>58</v>
+      <c r="B56" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="D56" s="4">
-        <v>35188</v>
+        <v>35186</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" ref="E56:E61" si="3">CONCATENATE(B56,".",C56,"@outlook.com")</f>
-        <v>Joan.Frain@outlook.com</v>
+        <f t="shared" si="3"/>
+        <v>David.Sider@outlook.com</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>66</v>
+      <c r="B57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D57" s="4">
-        <v>35189</v>
+        <v>35187</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="3"/>
-        <v>Christina.Gualtieri@outlook.com</v>
+        <v>Blake.Myers@outlook.com</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="4">
-        <v>35190</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="3"/>
-        <v>Lauren.Hills@outlook.com</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="4">
-        <v>35191</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="3"/>
-        <v>Meg.Johnston@outlook.com</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="4">
-        <v>35192</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="3"/>
-        <v>Mariette.Lincoln@outlook.com</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="4">
-        <v>35193</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="3"/>
-        <v>Janet.Vaughan@outlook.com</v>
-      </c>
-      <c r="F61">
-        <v>4</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="4">
-        <v>35187</v>
-      </c>
-      <c r="E62" t="str">
-        <f>CONCATENATE(B62,".",C62,"@outlook.com")</f>
-        <v>Sarah.Chapman-Jay@outlook.com</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>55</v>
+      <c r="B63" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="4">
+        <v>35184</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" ref="E63:E64" si="4">CONCATENATE(B63,".",C63,"@outlook.com")</f>
+        <v>Stephen.Harper@outlook.com</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" t="s">
-        <v>75</v>
+      <c r="A64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="4">
+        <v>35185</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="4"/>
+        <v>Al.Rubin@outlook.com</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="4">
+        <v>35186</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" ref="E65" si="5">CONCATENATE(B65,".",C65,"@outlook.com")</f>
+        <v>Derek.Dunham@outlook.com</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D66" s="4">
         <v>35188</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E70" si="4">CONCATENATE(B66,".",C66,"@outlook.com")</f>
-        <v>Marsh.Luise@outlook.com</v>
+        <f t="shared" ref="E66" si="6">CONCATENATE(B66,".",C66,"@outlook.com")</f>
+        <v>Bob.Hancock@outlook.com</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>101</v>
+      <c r="B67" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D67" s="4">
-        <v>35189</v>
+        <v>35188</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="4"/>
-        <v>Brienne.Sparsh@outlook.com</v>
+        <f t="shared" ref="E67" si="7">CONCATENATE(B67,".",C67,"@outlook.com")</f>
+        <v>John.Carruthers@outlook.com</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="4">
-        <v>35190</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="4"/>
-        <v>Luise.Adams@outlook.com</v>
-      </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="4">
-        <v>35191</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="4"/>
-        <v>Marjorie.Smith@outlook.com</v>
-      </c>
-      <c r="F69">
-        <v>4</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="4">
+        <v>35184</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ref="E71:E72" si="8">CONCATENATE(B71,".",C71,"@outlook.com")</f>
+        <v>Gerardo.Martinez@outlook.com</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="4">
+        <v>35185</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="8"/>
+        <v>Andrew.McNiven@outlook.com</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="4">
+        <v>35185</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" ref="E73:E74" si="9">CONCATENATE(B73,".",C73,"@outlook.com")</f>
+        <v>Bill.Gittings@outlook.com</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="4">
+        <v>35185</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="9"/>
+        <v>Zack.Jones@outlook.com</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="4">
+        <v>35185</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" ref="E75" si="10">CONCATENATE(B75,".",C75,"@outlook.com")</f>
+        <v>Ben.Gittings@outlook.com</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="4">
+        <v>35188</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" ref="E82:E87" si="11">CONCATENATE(B82,".",C82,"@outlook.com")</f>
+        <v>Joan.Frain@outlook.com</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="4">
+        <v>35189</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="11"/>
+        <v>Christina.Gualtieri@outlook.com</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="4">
+        <v>35190</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="11"/>
+        <v>Lauren.Hills@outlook.com</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="4">
+        <v>35191</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="11"/>
+        <v>Meg.Johnston@outlook.com</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="4">
+        <v>35192</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="11"/>
+        <v>Mariette.Lincoln@outlook.com</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="4">
+        <v>35193</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="11"/>
+        <v>Janet.Vaughan@outlook.com</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="4">
+        <v>35187</v>
+      </c>
+      <c r="E88" t="str">
+        <f>CONCATENATE(B88,".",C88,"@outlook.com")</f>
+        <v>Sarah.Chapman-Jay@outlook.com</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="4">
+        <v>35188</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" ref="E92:E96" si="12">CONCATENATE(B92,".",C92,"@outlook.com")</f>
+        <v>Marsh.Luise@outlook.com</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="4">
+        <v>35189</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="12"/>
+        <v>Brienne.Sparsh@outlook.com</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="4">
+        <v>35190</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="12"/>
+        <v>Luise.Adams@outlook.com</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="4">
+        <v>35191</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="12"/>
+        <v>Marjorie.Smith@outlook.com</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D96" s="4">
         <v>35192</v>
       </c>
-      <c r="E70" t="str">
-        <f t="shared" si="4"/>
+      <c r="E96" t="str">
+        <f t="shared" si="12"/>
         <v>Joana.Dark@outlook.com</v>
       </c>
-      <c r="F70">
+      <c r="F96">
         <v>5</v>
       </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="s">
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>97</v>
       </c>
     </row>
